--- a/Projects/CCRU_SAND/Data/with weights/Convenience Small PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/with weights/Convenience Small PoS 2018.xlsx
@@ -15,6 +15,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AO$162</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AO$162</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AO$162</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,156 +27,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="483">
-  <si>
-    <t>Sorting</t>
-  </si>
-  <si>
-    <t>SAP PoS</t>
-  </si>
-  <si>
-    <t>Channel</t>
-  </si>
-  <si>
-    <t>KPI Type</t>
-  </si>
-  <si>
-    <t>SAP KPI</t>
-  </si>
-  <si>
-    <t>KPI name Eng</t>
-  </si>
-  <si>
-    <t>KPI name Rus</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>target_min</t>
-  </si>
-  <si>
-    <t>target_max</t>
-  </si>
-  <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>Values</t>
-  </si>
-  <si>
-    <t>Product Category</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Logical Operator</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Form Factor</t>
-  </si>
-  <si>
-    <t>Zone to include</t>
-  </si>
-  <si>
-    <t>Locations to exclude</t>
-  </si>
-  <si>
-    <t>Locations to include</t>
-  </si>
-  <si>
-    <t>Scenes to include</t>
-  </si>
-  <si>
-    <t>Scenes to exclude</t>
-  </si>
-  <si>
-    <t>Sub locations to include</t>
-  </si>
-  <si>
-    <t>Sub locations to exclude</t>
-  </si>
-  <si>
-    <t>shelf_number</t>
-  </si>
-  <si>
-    <t>Converted?</t>
-  </si>
-  <si>
-    <t>score_func</t>
-  </si>
-  <si>
-    <t>KPI Weight</t>
-  </si>
-  <si>
-    <t>score_min</t>
-  </si>
-  <si>
-    <t>score_max</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Base KPI for TOP 5 GAPs</t>
-  </si>
-  <si>
-    <t>KPI from POS 2016</t>
-  </si>
-  <si>
-    <t>KPI ID</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>depends on</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>To include in first calculation?</t>
-  </si>
-  <si>
-    <t>RD38010004</t>
-  </si>
-  <si>
-    <t>Convenience Small</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>STANDARD 1</t>
-  </si>
-  <si>
-    <t>SSD Availability</t>
-  </si>
-  <si>
-    <t>Представленность SSD</t>
-  </si>
-  <si>
-    <t>Weighted Average </t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>2
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="484">
+  <si>
+    <t xml:space="preserve">Sorting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP PoS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP KPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI name Eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI name Rus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logical Operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zone to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locations to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locations to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub locations to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub locations to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelf_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converted?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_func</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base KPI for TOP 5 GAPs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI from POS 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depends on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To include in first calculation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RD38010004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convenience Small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Average </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2
 3
 4
 5
@@ -202,285 +203,285 @@
 26</t>
   </si>
   <si>
-    <t>Coca-Cola - 2L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 2л</t>
-  </si>
-  <si>
-    <t>number of facings</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>SKUs</t>
-  </si>
-  <si>
-    <t>Activation, Other</t>
-  </si>
-  <si>
-    <t>Panoramic Photo</t>
-  </si>
-  <si>
-    <t>BINARY</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.9L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.9л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.33L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.33л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.9L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.9л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.9L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.9л</t>
-  </si>
-  <si>
-    <t>Sprite - 0.9L</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.9л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 1.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 1.5л</t>
-  </si>
-  <si>
-    <t>Sprite - 2L</t>
-  </si>
-  <si>
-    <t>Спрайт - 2л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 2L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 2л</t>
-  </si>
-  <si>
-    <t>Sprite - 1.5L</t>
-  </si>
-  <si>
-    <t>Спрайт - 1.5л</t>
-  </si>
-  <si>
-    <t>Schweppes Bitter Lemon - 1.5L</t>
-  </si>
-  <si>
-    <t>Швеппс Биттер Лемон - 1.5л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t>Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t>Sprite - 0.33L</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.33л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 1.5L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 1.5л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.33L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.33л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.25L Slim</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.25л слим</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро Лемон - 0.5л</t>
-  </si>
-  <si>
-    <t>Sprite Cucumber-Watermelon - 0.5L</t>
-  </si>
-  <si>
-    <t>Спрайт Огурец-Арбуз - 0.5л</t>
-  </si>
-  <si>
-    <t>Fanta Pear - 0.5L</t>
-  </si>
-  <si>
-    <t>Фанта Груша - 0.5л</t>
-  </si>
-  <si>
-    <t>Fanta Citrus - 0.9L</t>
-  </si>
-  <si>
-    <t>Фанта Цитрус - 0.9л</t>
-  </si>
-  <si>
-    <t>Schweppes Tonic - 1L</t>
-  </si>
-  <si>
-    <t>Швеппс Тоник - 1л</t>
-  </si>
-  <si>
-    <t>STANDARD 2</t>
-  </si>
-  <si>
-    <t>Water Availability</t>
-  </si>
-  <si>
-    <t>Представленность Воды</t>
-  </si>
-  <si>
-    <t>28
+    <t xml:space="preserve">Coca-Cola - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activation, Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panoramic Photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BINARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Bitter Lemon - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Биттер Лемон - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.25L Slim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.25л слим</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро Лемон - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite Cucumber-Watermelon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт Огурец-Арбуз - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Pear - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Груша - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Citrus - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Цитрус - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Tonic - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Тоник - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Воды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28
 29
 30
 31</t>
   </si>
   <si>
-    <t>BonAqua Still - 1L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 1л</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 0.5L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 0.5л</t>
-  </si>
-  <si>
-    <t>BonAqua Viva - Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t>БонАква Вива - Лимон - 0.5л</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 2L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 2л</t>
-  </si>
-  <si>
-    <t>Energy Availability</t>
-  </si>
-  <si>
-    <t>Представленность Энергетиков</t>
-  </si>
-  <si>
-    <t>33
+    <t xml:space="preserve">BonAqua Still - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Viva - Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Вива - Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Энергетиков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33
 34
 35</t>
   </si>
   <si>
-    <t>Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t>Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t>Monster Green - 0.5L</t>
-  </si>
-  <si>
-    <t>Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t>Burn Apple Kiwi - 0.5L</t>
-  </si>
-  <si>
-    <t>Берн Яблоко-Киви - 0.5л</t>
-  </si>
-  <si>
-    <t>Tea Availability</t>
-  </si>
-  <si>
-    <t>Представленность Чая</t>
-  </si>
-  <si>
-    <t>37
+    <t xml:space="preserve">Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster Green - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn Apple Kiwi - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Яблоко-Киви - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Чая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37
 38
 39
 40</t>
   </si>
   <si>
-    <t>Fuze Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Лимон - 0.5л</t>
-  </si>
-  <si>
-    <t>Fuze Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Фьюз Лимон - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Berry - 1L</t>
-  </si>
-  <si>
-    <t>Фьюз Лесн.ягоды - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Green Strawberry-Raspberry - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Зеленый Клубника-Малина - 0.5л</t>
-  </si>
-  <si>
-    <t>Juice Availability</t>
-  </si>
-  <si>
-    <t>Представленность Сока</t>
-  </si>
-  <si>
-    <t>42
+    <t xml:space="preserve">Fuze Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Berry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лесн.ягоды - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Зеленый Клубника-Малина - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Сока</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42
 43
 44
 45
@@ -510,223 +511,223 @@
 69</t>
   </si>
   <si>
-    <t>Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Peach-Apple - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Персик-Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Tomato - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Томат - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Orange - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Апельсин - 2л</t>
-  </si>
-  <si>
-    <t>Pulpy - Orange - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Апельсин - 0.45л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 0.2L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 0.2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 0.2L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 0.2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 0.33L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 0.33л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 0.33L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 0.33л</t>
-  </si>
-  <si>
-    <t>Pulpy - Orange - 0.9L</t>
-  </si>
-  <si>
-    <t>Палпи - Апельсин - 0.9л</t>
-  </si>
-  <si>
-    <t>Rich - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Cherry - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Вишня - 1л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Berry Fruit - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Фруктово-Ягодный - 1л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple Cloudy - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Деревенские яблочки - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Peach-Apple - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Персик-Яблоко - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Tomato - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Томат - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Bodriy Citrus - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Бодрый Цитрус - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pomegranate-Grape - 1L</t>
-  </si>
-  <si>
-    <t>Добрый Уголки - Гранат-Виноград - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pear - 1L</t>
-  </si>
-  <si>
-    <t>Добрый Уголки - Груша - 1л</t>
-  </si>
-  <si>
-    <t>Pulpy - Mango Pineapple - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Манго Ананас - 0.45л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pouch smoothie1 - 0.11L</t>
-  </si>
-  <si>
-    <t>Добрый - Смузи 1 - 0.11л</t>
-  </si>
-  <si>
-    <t>STANDARD 20</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>SSD полка: Доля полки</t>
-  </si>
-  <si>
-    <t>SOS</t>
-  </si>
-  <si>
-    <t>Manufacturer: TCCC</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
-    <t>MAN in CAT</t>
-  </si>
-  <si>
-    <t>Warm Shelf</t>
-  </si>
-  <si>
-    <t>PROPORTIONAL</t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t>SSD полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t>number of atomic KPI Passed</t>
-  </si>
-  <si>
-    <t>AND</t>
-  </si>
-  <si>
-    <t>2, 3</t>
-  </si>
-  <si>
-    <t>72
+    <t xml:space="preserve">Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Peach-Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Персик-Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Tomato - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Томат - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Orange - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Апельсин - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Orange - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Апельсин - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Orange - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Апельсин - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Cherry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Вишня - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Berry Fruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Фруктово-Ягодный - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple Cloudy - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Деревенские яблочки - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Peach-Apple - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Персик-Яблоко - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Tomato - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Томат - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Bodriy Citrus - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Бодрый Цитрус - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pomegranate-Grape - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Уголки - Гранат-Виноград - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pear - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Уголки - Груша - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Mango Pineapple - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Манго Ананас - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pouch smoothie1 - 0.11L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Смузи 1 - 0.11л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer: TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAN in CAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warm Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROPORTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of atomic KPI Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2, 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72
 73
 74
 75
@@ -735,542 +736,542 @@
 78</t>
   </si>
   <si>
-    <t>Shelf: SKU on Eye level</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t>SSD полка: Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t>SSD полка: Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t>SSD полка: Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t>SSD полка: Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Coca-Cola - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD полка: Кока-Кола - 0.9/1л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.9L, Coca-Cola - 1L</t>
-  </si>
-  <si>
-    <t>5449000228970, 5449000054227</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Sprite - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD полка: Спрайт - 0.9/1л</t>
-  </si>
-  <si>
-    <t>Sprite - 0.9L, Sprite - 1L</t>
-  </si>
-  <si>
-    <t>5449000228956, 5449000050939</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Fanta Orange - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD полка: Фанта Апельсин - 0.9/1л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.9L, Fanta Orange - 1L</t>
-  </si>
-  <si>
-    <t>5449000228963, 5449000006271</t>
-  </si>
-  <si>
-    <t>STANDARD 23</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>Сок полка: Доля полки</t>
-  </si>
-  <si>
-    <t>Juices</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t>Сок полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t>81
+    <t xml:space="preserve">Shelf: SKU on Eye level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Coca-Cola - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Кока-Кола - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.9L, Coca-Cola - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000228970, 5449000054227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Sprite - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Спрайт - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.9L, Sprite - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000228956, 5449000050939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Fanta Orange - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Фанта Апельсин - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.9L, Fanta Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000228963, 5449000006271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81
 82
 83
 84
 85</t>
   </si>
   <si>
-    <t>Juice Shelf: Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Dobriy - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Добрый - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Moya Semya - Berry Fruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Моя Семья - Фруктово-Ягодный - 1л</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Moya Semya - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Моя Семья - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>STANDARD 21</t>
-  </si>
-  <si>
-    <t>Water Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>Вода полка: Доля полки</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Water Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t>Вода полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>Water Shelf: BonAqua Still 1L</t>
-  </si>
-  <si>
-    <t>Вода полка: БонАква Негаз - 1л</t>
-  </si>
-  <si>
-    <t>BonAqua Still 1L</t>
-  </si>
-  <si>
-    <t>STANDARD 24</t>
-  </si>
-  <si>
-    <t>Ice Tea Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>Холодный Чай полка: Доля полки</t>
-  </si>
-  <si>
-    <t>Ice Tea</t>
-  </si>
-  <si>
-    <t>Ice Tea Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t>Холодный Чай полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t>91
+    <t xml:space="preserve">Juice Shelf: Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Dobriy - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Добрый - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Moya Semya - Berry Fruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Моя Семья - Фруктово-Ягодный - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Moya Semya - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Моя Семья - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Shelf: BonAqua Still 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода полка: БонАква Негаз - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Tea Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодный Чай полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Tea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Tea Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодный Чай полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91
 92</t>
   </si>
   <si>
-    <t>Ice Tea Shelf: Fuze Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Холодный Чай полка: Фьюз Лимон - 1л</t>
-  </si>
-  <si>
-    <t>Ice Tea Shelf: Fuze Berry - 1L</t>
-  </si>
-  <si>
-    <t>Холодный Чай полка: Фьюз Лесн.ягоды - 1л</t>
-  </si>
-  <si>
-    <t>STANDARD 25</t>
-  </si>
-  <si>
-    <t>Energy Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>Энергетики полка: Доля полки</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>STANDARD 19</t>
-  </si>
-  <si>
-    <t>SSD Display 1st</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й</t>
-  </si>
-  <si>
-    <t>number of atomic KPI Passed on the same scene</t>
-  </si>
-  <si>
-    <t>SSD Displays</t>
-  </si>
-  <si>
-    <t>1st SSD Display</t>
-  </si>
-  <si>
-    <t>95
+    <t xml:space="preserve">Ice Tea Shelf: Fuze Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодный Чай полка: Фьюз Лимон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Tea Shelf: Fuze Berry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодный Чай полка: Фьюз Лесн.ягоды - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of atomic KPI Passed on the same scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st SSD Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95
 96
 97</t>
   </si>
   <si>
-    <t>SSD Display 1st: Facings</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Фейсинги</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Zone</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Зона</t>
-  </si>
-  <si>
-    <t>number of scenes</t>
-  </si>
-  <si>
-    <t>SCENES</t>
-  </si>
-  <si>
-    <t>1/3 of the Store</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Lead SKU Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Основной СКЮ Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t>Lead SKU</t>
-  </si>
-  <si>
-    <t>Coca-Cola 1.5L share on Display</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Merch. Standard</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Мерч. Стандарт</t>
-  </si>
-  <si>
-    <t>Checked only for scene that passed SSD Display 1st</t>
-  </si>
-  <si>
-    <t>99
+    <t xml:space="preserve">SSD Display 1st: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of scenes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCENES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3 of the Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Lead SKU Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Основной СКЮ Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola 1.5L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Merch. Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Мерч. Стандарт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked only for scene that passed SSD Display 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99
 100
 101</t>
   </si>
   <si>
-    <t>Displays Merch. Standards</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Sprite - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Спрайт - 1.5л</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Fanta Orange - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Фанта Апельсин - 1.5л</t>
-  </si>
-  <si>
-    <t>SSD Display 2d</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й</t>
-  </si>
-  <si>
-    <t>2nd SSD Display</t>
-  </si>
-  <si>
-    <t>103
+    <t xml:space="preserve">Displays Merch. Standards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Sprite - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Спрайт - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Fanta Orange - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Фанта Апельсин - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2nd SSD Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103
 104
 105</t>
   </si>
   <si>
-    <t>SSD Display 2d: Facings</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Фейсинги</t>
-  </si>
-  <si>
-    <t>SSD Display 2d: Zone</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Зона</t>
-  </si>
-  <si>
-    <t>Bakery</t>
-  </si>
-  <si>
-    <t>SSD Display 2d: Lead SKU Coca-Cola - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Основной СКЮ Кока-Кола - 0.9/1л</t>
-  </si>
-  <si>
-    <t>Coca-Cola 0.9L/1L share on Display</t>
-  </si>
-  <si>
-    <t>SSD Display 2d: Merch. Standard</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Мерч. Стандарт</t>
-  </si>
-  <si>
-    <t>Checked only for scene that passed SSD Display 2d</t>
-  </si>
-  <si>
-    <t>107
+    <t xml:space="preserve">SSD Display 2d: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bakery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d: Lead SKU Coca-Cola - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Основной СКЮ Кока-Кола - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola 0.9L/1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d: Merch. Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Мерч. Стандарт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked only for scene that passed SSD Display 2d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107
 108</t>
   </si>
   <si>
-    <t>SSD Display 2d: Coca-Cola - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Кока-Кола - 0.9/1л</t>
-  </si>
-  <si>
-    <t>SSD Display 2d: Coca-Cola Zero - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Кока-Кола Зеро - 0.9/1л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.9L, Coca-Cola Zero - 1L</t>
-  </si>
-  <si>
-    <t>5449000231659, 5449000133328</t>
-  </si>
-  <si>
-    <t>Juice Display 1st</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й</t>
-  </si>
-  <si>
-    <t>Juice Displays</t>
-  </si>
-  <si>
-    <t>1st Juice Display</t>
-  </si>
-  <si>
-    <t>110
+    <t xml:space="preserve">SSD Display 2d: Coca-Cola - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Кока-Кола - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d: Coca-Cola Zero - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Кока-Кола Зеро - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.9L, Coca-Cola Zero - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000231659, 5449000133328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st Juice Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110
 111
 112</t>
   </si>
   <si>
-    <t>Juice Display 1st: Facings</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Фейсинги</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Zone</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Зона</t>
-  </si>
-  <si>
-    <t>Produce</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Lead SKU Dobriy - Apple/Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Основной СКЮ Добрый Яблоко/Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>number of sub atomic KPI Passed</t>
-  </si>
-  <si>
-    <t>113
+    <t xml:space="preserve">Juice Display 1st: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Lead SKU Dobriy - Apple/Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Основной СКЮ Добрый Яблоко/Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of sub atomic KPI Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113
 114</t>
   </si>
   <si>
-    <t>Juice Display 1st: Lead Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Основной Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 1L share on Display</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Lead Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Основной Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 1L share on Display</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Merch. Standard</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Мерч. Стандарт</t>
-  </si>
-  <si>
-    <t>Checked only for scene that passed Juice Display 1st</t>
-  </si>
-  <si>
-    <t>116
+    <t xml:space="preserve">Juice Display 1st: Lead Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Основной Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Lead Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Основной Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Merch. Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Мерч. Стандарт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked only for scene that passed Juice Display 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116
 117
 118
 119</t>
   </si>
   <si>
-    <t>Juice Display 1st: Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Dobriy - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Добрый - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Dobriy - Peach-Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Добрый - Персик-Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>STANDARD 22</t>
-  </si>
-  <si>
-    <t>Cooler: Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей</t>
-  </si>
-  <si>
-    <t>sum of atomic KPI result</t>
-  </si>
-  <si>
-    <t>Plus</t>
-  </si>
-  <si>
-    <t>Store Master Data attr15</t>
-  </si>
-  <si>
-    <t>121
+    <t xml:space="preserve">Juice Display 1st: Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Dobriy - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Dobriy - Peach-Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Персик-Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum of atomic KPI result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store Master Data attr15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121
 122</t>
   </si>
   <si>
-    <t>Cooler: CCH Cooler Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей Холодильников Компании</t>
-  </si>
-  <si>
-    <t>number of doors with more than Target facings</t>
-  </si>
-  <si>
-    <t>MAN</t>
-  </si>
-  <si>
-    <t>Cooler</t>
-  </si>
-  <si>
-    <t>Cooler: Customer Cooler Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей Холодильников Клиента</t>
-  </si>
-  <si>
-    <t>facings TCCC/40</t>
-  </si>
-  <si>
-    <t>Other Coolers, Cold Shelf</t>
-  </si>
-  <si>
-    <t>Cooler: Prime Position</t>
-  </si>
-  <si>
-    <t>Холодильники: Лучшее место</t>
-  </si>
-  <si>
-    <t>1/3 of the Store, Beverage Section, Regular checkouts, Bakery</t>
-  </si>
-  <si>
-    <t>Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
-  </si>
-  <si>
-    <t>CCH coolers quality (Prime Pos, Max15, Merch STD, Occupancy, Lights&amp;clean)</t>
-  </si>
-  <si>
-    <t>Cooler: Max 23</t>
-  </si>
-  <si>
-    <t>Холодильники: Максимум 23 СКЮ на дверь</t>
-  </si>
-  <si>
-    <t>number of SKU per Door RANGE</t>
-  </si>
-  <si>
-    <t>Cooler: Merch Priorty STD</t>
-  </si>
-  <si>
-    <t>Холодильники: Мерч. Стандарты</t>
-  </si>
-  <si>
-    <t>126
+    <t xml:space="preserve">Cooler: CCH Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Компании</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of doors with more than Target facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Customer Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Клиента</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facings TCCC/40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Coolers, Cold Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Prime Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Лучшее место</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3 of the Store, Beverage Section, Regular checkouts, Bakery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCH coolers quality (Prime Pos, Max15, Merch STD, Occupancy, Lights&amp;clean)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Max 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Максимум 23 СКЮ на дверь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of SKU per Door RANGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Merch Priorty STD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Мерч. Стандарты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126
 127
 128
 129
@@ -1288,295 +1289,298 @@
 141</t>
   </si>
   <si>
-    <t>Cooler: BonAqua Still - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: БонАква Негаз - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola - 0.33L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола - 0.33л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola - 0.9L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола - 0.9л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola Zero - 0.9L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола Зеро - 0.9л</t>
-  </si>
-  <si>
-    <t>Cooler: Fanta Orange - 0.33L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фанта Апельсин - 0.33л</t>
-  </si>
-  <si>
-    <t>Cooler: Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Fanta Orange - 0.9L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фанта Апельсин - 0.9л</t>
-  </si>
-  <si>
-    <t>Cooler: ANY Fuze Green 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фьюз Зеленый - 0.5л любой</t>
-  </si>
-  <si>
-    <t>ANY Fuze Green 0.5L</t>
-  </si>
-  <si>
-    <t>5449000233615, 5449000189370</t>
-  </si>
-  <si>
-    <t>Cooler: ANY Fuze Black 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фьюз Черный - 0.5л любой</t>
-  </si>
-  <si>
-    <t>ANY Fuze Black 0.5L</t>
-  </si>
-  <si>
-    <t>5449000189301, 5449000189332, 5449000193124</t>
-  </si>
-  <si>
-    <t>Cooler: Monster Green - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Sprite - 0.33L</t>
-  </si>
-  <si>
-    <t>Холодильники: Спрайт - 0.33л</t>
-  </si>
-  <si>
-    <t>Cooler: Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Sprite - 0.9L</t>
-  </si>
-  <si>
-    <t>Холодильники: Спрайт - 0.9л</t>
-  </si>
-  <si>
-    <t>Cooler:  w/o other products</t>
-  </si>
-  <si>
-    <t>Холодильники: Без чужой продукции</t>
-  </si>
-  <si>
-    <t>Share of CCH doors which have 98% TCCC facings</t>
-  </si>
-  <si>
-    <t>Promo Displays</t>
-  </si>
-  <si>
-    <t>Промо дисплеи</t>
-  </si>
-  <si>
-    <t>Weighted Average</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>Promo displays SAP</t>
-  </si>
-  <si>
-    <t>Promo Displays: Facings</t>
-  </si>
-  <si>
-    <t>Промо дисплеи: Фейсинги</t>
-  </si>
-  <si>
-    <t>number of scenes with have at least target amount of facings</t>
-  </si>
-  <si>
-    <t>COUNT</t>
-  </si>
-  <si>
-    <t>RGM Activations</t>
-  </si>
-  <si>
-    <t>RGM Активации</t>
-  </si>
-  <si>
-    <t>146
+    <t xml:space="preserve">Cooler: BonAqua Still - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: БонАква Негаз - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola Zero - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола Зеро - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Fanta Orange - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фанта Апельсин - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Fanta Orange - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фанта Апельсин - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: ANY Fuze Green 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фьюз Зеленый - 0.5л любой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANY Fuze Green 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000233615, 5449000189370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: ANY Fuze Black 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фьюз Черный - 0.5л любой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANY Fuze Black 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000189301, 5449000189332, 5449000193124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Monster Green - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Sprite - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Спрайт - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Sprite - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Спрайт - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler:  w/o other products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Без чужой продукции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of CCH doors which have 98% TCCC facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Промо дисплеи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo displays SAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo Displays: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Промо дисплеи: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check_number_of_scenes_with_facings_target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of scenes with have at least target amount of facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146
 147
 148
 149</t>
   </si>
   <si>
-    <t>RGM Activations SAP</t>
-  </si>
-  <si>
-    <t>RGM Activations: SSD with Meal</t>
-  </si>
-  <si>
-    <t>RGM Активации: SSD с едой</t>
-  </si>
-  <si>
-    <t>SSD with Meal</t>
-  </si>
-  <si>
-    <t>RGM Activations: Juice &amp; Meal</t>
-  </si>
-  <si>
-    <t>RGM Активации: Сок с едой</t>
-  </si>
-  <si>
-    <t>Dobriy 0.2L near infant Food, Pulpy 0.45L near Milk, Dobriy 0.33L in Bakery, Rich 1L near Cakes</t>
-  </si>
-  <si>
-    <t>RGM Activations: On-the-go</t>
-  </si>
-  <si>
-    <t>RGM Активации: На ходу</t>
-  </si>
-  <si>
-    <t>On-the-go</t>
-  </si>
-  <si>
-    <t>RGM Activations: Screen time</t>
-  </si>
-  <si>
-    <t>RGM Активации: У Экрана</t>
-  </si>
-  <si>
-    <t>Screen time</t>
-  </si>
-  <si>
-    <t>Hidden</t>
-  </si>
-  <si>
-    <t>LOCAL 2</t>
-  </si>
-  <si>
-    <t>number of KPI Passed</t>
-  </si>
-  <si>
-    <t>Session level</t>
-  </si>
-  <si>
-    <t>LOCAL 6</t>
-  </si>
-  <si>
-    <t>KPI result</t>
-  </si>
-  <si>
-    <t>STANDARD 18</t>
-  </si>
-  <si>
-    <t>sum of KPI result</t>
-  </si>
-  <si>
-    <t>LOCAL 5</t>
-  </si>
-  <si>
-    <t>LOCAL 7</t>
-  </si>
-  <si>
-    <t>Scene Sub Type 2</t>
-  </si>
-  <si>
-    <t>Number of Cooler Doors</t>
-  </si>
-  <si>
-    <t>Number of doors according to guide for all Coolers</t>
-  </si>
-  <si>
-    <t>Scene level</t>
-  </si>
-  <si>
-    <t>Attribute 1</t>
-  </si>
-  <si>
-    <t>POP Activated</t>
-  </si>
-  <si>
-    <t>Y for all Displays</t>
-  </si>
-  <si>
-    <t>Attribute 2</t>
-  </si>
-  <si>
-    <t>Experiantial Activation</t>
-  </si>
-  <si>
-    <t>N for all Displays</t>
-  </si>
-  <si>
-    <t>Scene Sub Type 1</t>
-  </si>
-  <si>
-    <t>Coolers and Displays Zones</t>
-  </si>
-  <si>
-    <t>Scene attribute for all Cooler and Displays</t>
-  </si>
-  <si>
-    <t>Attribute 3</t>
-  </si>
-  <si>
-    <t>Displays Priority Occasion</t>
-  </si>
-  <si>
-    <t>No_O_A</t>
-  </si>
-  <si>
-    <t>MealsAtHo</t>
-  </si>
-  <si>
-    <t>MeTimeAtH</t>
-  </si>
-  <si>
-    <t>Scene</t>
-  </si>
-  <si>
-    <t>KPI Score Formula</t>
-  </si>
-  <si>
-    <t>KPI weighted Score</t>
-  </si>
-  <si>
-    <t>Will be added on the 16th of December</t>
+    <t xml:space="preserve">RGM Activations SAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: SSD with Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: SSD с едой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD with Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: Juice &amp; Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: Сок с едой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy 0.2L near infant Food, Pulpy 0.45L near Milk, Dobriy 0.33L in Bakery, Rich 1L near Cakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: On-the-go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: На ходу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On-the-go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: Screen time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: У Экрана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screen time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAL 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of KPI Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Session level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAL 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum of KPI result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAL 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAL 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene Sub Type 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of doors according to guide for all Coolers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POP Activated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y for all Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experiantial Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N for all Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene Sub Type 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coolers and Displays Zones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene attribute for all Cooler and Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Displays Priority Occasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No_O_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MealsAtHo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MeTimeAtH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Score Formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI weighted Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will be added on the 16th of December</t>
   </si>
 </sst>
 </file>
@@ -1584,7 +1588,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.00%"/>
     <numFmt numFmtId="167" formatCode="0%"/>
@@ -1812,7 +1816,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="109">
@@ -2336,21 +2340,21 @@
   </sheetPr>
   <dimension ref="A1:AO162"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="AD43" activeCellId="0" sqref="AD43"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="I39" activeCellId="0" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="10" min="7" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.1376518218624"/>
     <col collapsed="false" hidden="false" max="22" min="14" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -14460,7 +14464,7 @@
       </c>
       <c r="AO144" s="11"/>
     </row>
-    <row r="145" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="124.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="24" t="n">
         <v>144</v>
       </c>
@@ -14482,13 +14486,15 @@
       <c r="G145" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="H145" s="46" t="s">
+      <c r="H145" s="64" t="s">
         <v>433</v>
       </c>
       <c r="I145" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" s="46" t="n">
         <v>8</v>
       </c>
-      <c r="J145" s="46"/>
       <c r="K145" s="46"/>
       <c r="L145" s="46" t="s">
         <v>201</v>
@@ -14525,7 +14531,9 @@
       </c>
       <c r="AE145" s="46"/>
       <c r="AF145" s="46"/>
-      <c r="AG145" s="46"/>
+      <c r="AG145" s="45" t="s">
+        <v>435</v>
+      </c>
       <c r="AH145" s="46"/>
       <c r="AI145" s="46"/>
       <c r="AJ145" s="31" t="n">
@@ -14558,10 +14566,10 @@
         <v>207</v>
       </c>
       <c r="F146" s="45" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G146" s="16" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H146" s="46" t="s">
         <v>210</v>
@@ -14612,11 +14620,11 @@
         <v>2</v>
       </c>
       <c r="AL146" s="22" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM146" s="11"/>
       <c r="AN146" s="91" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AO146" s="11"/>
     </row>
@@ -14637,10 +14645,10 @@
         <v>207</v>
       </c>
       <c r="F147" s="45" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G147" s="16" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H147" s="92" t="s">
         <v>288</v>
@@ -14666,7 +14674,7 @@
       <c r="U147" s="46"/>
       <c r="V147" s="46"/>
       <c r="W147" s="93" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="X147" s="46"/>
       <c r="Y147" s="94"/>
@@ -14695,7 +14703,7 @@
       <c r="AL147" s="45"/>
       <c r="AM147" s="45"/>
       <c r="AN147" s="45" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AO147" s="11"/>
     </row>
@@ -14716,10 +14724,10 @@
         <v>207</v>
       </c>
       <c r="F148" s="45" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G148" s="16" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H148" s="92" t="s">
         <v>288</v>
@@ -14745,7 +14753,7 @@
       <c r="U148" s="46"/>
       <c r="V148" s="46"/>
       <c r="W148" s="93" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="X148" s="46"/>
       <c r="Y148" s="94"/>
@@ -14774,7 +14782,7 @@
       <c r="AL148" s="45"/>
       <c r="AM148" s="45"/>
       <c r="AN148" s="45" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AO148" s="11"/>
     </row>
@@ -14795,10 +14803,10 @@
         <v>207</v>
       </c>
       <c r="F149" s="45" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G149" s="16" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H149" s="92" t="s">
         <v>288</v>
@@ -14824,7 +14832,7 @@
       <c r="U149" s="46"/>
       <c r="V149" s="46"/>
       <c r="W149" s="93" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="X149" s="46"/>
       <c r="Y149" s="94"/>
@@ -14853,7 +14861,7 @@
       <c r="AL149" s="45"/>
       <c r="AM149" s="45"/>
       <c r="AN149" s="45" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AO149" s="11"/>
     </row>
@@ -14874,10 +14882,10 @@
         <v>207</v>
       </c>
       <c r="F150" s="45" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G150" s="16" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H150" s="92" t="s">
         <v>288</v>
@@ -14903,7 +14911,7 @@
       <c r="U150" s="46"/>
       <c r="V150" s="46"/>
       <c r="W150" s="93" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="X150" s="46"/>
       <c r="Y150" s="94"/>
@@ -14932,7 +14940,7 @@
       <c r="AL150" s="45"/>
       <c r="AM150" s="45"/>
       <c r="AN150" s="45" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AO150" s="48"/>
     </row>
@@ -14947,20 +14955,20 @@
         <v>42</v>
       </c>
       <c r="D151" s="95" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E151" s="96" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F151" s="97" t="s">
         <v>214</v>
       </c>
       <c r="G151" s="97"/>
       <c r="H151" s="98" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I151" s="99" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J151" s="98"/>
       <c r="K151" s="100"/>
@@ -15012,20 +15020,20 @@
         <v>42</v>
       </c>
       <c r="D152" s="95" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E152" s="78" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F152" s="91" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G152" s="103"/>
       <c r="H152" s="98" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="I152" s="99" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J152" s="98"/>
       <c r="K152" s="100"/>
@@ -15077,20 +15085,20 @@
         <v>42</v>
       </c>
       <c r="D153" s="95" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E153" s="78" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F153" s="78" t="s">
         <v>380</v>
       </c>
       <c r="G153" s="103"/>
       <c r="H153" s="98" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I153" s="99" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J153" s="98"/>
       <c r="K153" s="100"/>
@@ -15142,20 +15150,20 @@
         <v>42</v>
       </c>
       <c r="D154" s="95" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E154" s="78" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F154" s="78" t="s">
         <v>430</v>
       </c>
       <c r="G154" s="103"/>
       <c r="H154" s="98" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="I154" s="99" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J154" s="98"/>
       <c r="K154" s="100"/>
@@ -15207,20 +15215,20 @@
         <v>42</v>
       </c>
       <c r="D155" s="95" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E155" s="78" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F155" s="78" t="s">
         <v>299</v>
       </c>
       <c r="G155" s="103"/>
       <c r="H155" s="100" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I155" s="99" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J155" s="98"/>
       <c r="K155" s="100"/>
@@ -15272,20 +15280,20 @@
         <v>42</v>
       </c>
       <c r="D156" s="95" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E156" s="78" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F156" s="78" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G156" s="103"/>
       <c r="H156" s="100" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="I156" s="99" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J156" s="98"/>
       <c r="K156" s="100"/>
@@ -15337,20 +15345,20 @@
         <v>42</v>
       </c>
       <c r="D157" s="95" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E157" s="78" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F157" s="78" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G157" s="103"/>
       <c r="H157" s="100" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I157" s="99" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J157" s="98"/>
       <c r="K157" s="100"/>
@@ -15402,20 +15410,20 @@
         <v>42</v>
       </c>
       <c r="D158" s="95" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E158" s="78" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F158" s="78" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G158" s="103"/>
       <c r="H158" s="100" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="I158" s="99" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J158" s="98"/>
       <c r="K158" s="100"/>
@@ -15467,20 +15475,20 @@
         <v>42</v>
       </c>
       <c r="D159" s="95" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E159" s="78" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F159" s="78" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G159" s="103"/>
       <c r="H159" s="100" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="I159" s="99" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J159" s="98"/>
       <c r="K159" s="100"/>
@@ -15532,22 +15540,22 @@
         <v>42</v>
       </c>
       <c r="D160" s="95" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E160" s="78" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F160" s="78" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G160" s="103" t="s">
         <v>278</v>
       </c>
       <c r="H160" s="100" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="I160" s="99" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J160" s="98"/>
       <c r="K160" s="100"/>
@@ -15599,22 +15607,22 @@
         <v>42</v>
       </c>
       <c r="D161" s="95" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E161" s="78" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F161" s="78" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G161" s="103" t="s">
         <v>306</v>
       </c>
       <c r="H161" s="100" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I161" s="99" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J161" s="98"/>
       <c r="K161" s="100"/>
@@ -15666,22 +15674,22 @@
         <v>42</v>
       </c>
       <c r="D162" s="95" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E162" s="78" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F162" s="78" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G162" s="103" t="s">
         <v>328</v>
       </c>
       <c r="H162" s="100" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="I162" s="99" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J162" s="98"/>
       <c r="K162" s="100"/>
@@ -15753,7 +15761,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="105" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15808,10 +15816,10 @@
         <v>11</v>
       </c>
       <c r="G1" s="107" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1" s="107" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I1" s="107" t="s">
         <v>32</v>
@@ -15820,7 +15828,7 @@
         <v>29</v>
       </c>
       <c r="K1" s="107" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L1" s="107" t="s">
         <v>33</v>
@@ -15831,7 +15839,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="108" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
